--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -599,55 +599,23 @@
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>[[ 0  9  7 19 13 28 15  9]
- [ 0  0  0  1  2  0  4  2]
- [ 0  0  0  2  0  1  1  3]
- [ 0  0  0  0  5  4  1 12]
- [ 0  0  0  0  0  1 15  4]
- [ 0  0  0  0  0  0 17 17]
- [ 0  0  0  0  0  0  0 53]
- [ 0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>[[ 0 14  9 12  3  0  0  4 17  1]
  [ 0  0  2  2  1  4  1  1  2  1]
@@ -661,11 +629,43 @@
  [ 0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[[ 0  9  7 19 13 28 15  9]
+ [ 0  0  0  1  2  0  4  2]
+ [ 0  0  0  2  0  1  1  3]
+ [ 0  0  0  0  5  4  1 12]
+ [ 0  0  0  0  0  1 15  4]
+ [ 0  0  0  0  0  0 17 17]
+ [ 0  0  0  0  0  0  0 53]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -695,55 +695,23 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>[[ 0  5 13  4 11 11 27  1]
- [ 0  0  1  0  0  1  1  2]
- [ 0  0  0  1  0  6  1  6]
- [ 0  0  0  0  0  0  5  0]
- [ 0  0  0  0  0  0  2  9]
- [ 0  0  0  0  0  0 15  3]
- [ 0  0  0  0  0  0  0 51]
- [ 0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>[[ 0  0  6  2  2  1  1  3  2  1  2  0]
  [ 0  0  0  0  0  0  0  0  0  0  0  0]
@@ -759,11 +727,43 @@
  [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[[ 0  5 13  4 11 11 27  1]
+ [ 0  0  1  0  0  1  1  2]
+ [ 0  0  0  1  0  6  1  6]
+ [ 0  0  0  0  0  0  5  0]
+ [ 0  0  0  0  0  0  2  9]
+ [ 0  0  0  0  0  0 15  3]
+ [ 0  0  0  0  0  0  0 51]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -797,23 +797,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[[ 0  6  0  2  1  2  8  1  1 11  0 12  1 15]
+ [ 0  0  0  0  0  0  1  1  0  0  1  0  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  2  0  0]
+ [ 0  0  0  0  0  0  0  3  0  3  0  4  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  1  1  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0 10  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  6  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1 24]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[[ 0  4  0 14 27  6 19  0 14  0 11  0  2 23  4 20]
  [ 0  0  0  1  1  0  1  1  0  0  0  0  0  0  0  0]
@@ -833,49 +871,11 @@
  [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>1075</v>
       </c>
-      <c r="G12" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[[ 0  6  0  2  1  2  8  1  1 11  0 12  1 15]
- [ 0  0  0  0  0  0  1  1  0  0  1  0  2  1]
- [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
- [ 0  0  0  0  0  1  1  0  0  0  0  0  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0]
- [ 0  0  0  0  0  0  0  0  1  0  0  2  0  0]
- [ 0  0  0  0  0  0  0  3  0  3  0  4  0  0]
- [ 0  0  0  0  0  0  0  0  1  0  1  1  1  1]
- [ 0  0  0  0  0  0  0  0  0  0  2  0  1  0]
- [ 0  0  0  0  0  0  0  0  0  0  1  0 10  3]
- [ 0  0  0  0  0  0  0  0  0  0  0  6  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0  1 24]
- [ 0  0  0  0  0  0  0  0  0  0  0  0  0 16]
- [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -911,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1083,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1303,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1341,7 +1341,7 @@
         <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -1499,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -1535,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1597,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -1631,85 +1631,23 @@
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>[[ 0 12 20  4  2  3 18  5]
- [ 0  0  1  0  0  5  5  1]
- [ 0  0  0  0  1 13  3  4]
- [ 0  0  0  0  1  0  1  2]
- [ 0  0  0  0  0  2  0  2]
- [ 0  0  0  0  0  0 15  8]
- [ 0  0  0  0  0  0  0 42]
- [ 0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" t="n">
-        <v>8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>[[ 0  1 15  0  0  0]
- [ 0  0  0  0  0  1]
- [ 0  0  0  3 12  0]
- [ 0  0  0  0  0  3]
- [ 0  0  0  0  0 12]
- [ 0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>14</v>
-      </c>
-      <c r="B38" t="n">
-        <v>10</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>[[ 0  3  5 14  6  7  3  0  0  5  2  8  7  0]
  [ 0  0  0  1  0  0  0  0  0  0  0  2  0  0]
@@ -1727,11 +1665,73 @@
  [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>28</v>
+      </c>
+      <c r="G36" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[[ 0 12 20  4  2  3 18  5]
+ [ 0  0  1  0  0  5  5  1]
+ [ 0  0  0  0  1 13  3  4]
+ [ 0  0  0  0  1  0  1  2]
+ [ 0  0  0  0  0  2  0  2]
+ [ 0  0  0  0  0  0 15  8]
+ [ 0  0  0  0  0  0  0 42]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[[ 0  1 15  0  0  0]
+ [ 0  0  0  0  0  1]
+ [ 0  0  0  3 12  0]
+ [ 0  0  0  0  0  3]
+ [ 0  0  0  0  0 12]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1797,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1835,15 +1835,15 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
         <v>12</v>
@@ -1852,38 +1852,6 @@
         <v>2</v>
       </c>
       <c r="E42" t="inlineStr">
-        <is>
-          <t>[[ 0 18  4  8  1  1  8 32]
- [ 0  0  8  1  2  4  0  3]
- [ 0  0  0  6  0  0  4  2]
- [ 0  0  0  0  9  3  3  0]
- [ 0  0  0  0  0  8  2  2]
- [ 0  0  0  0  0  0  6 10]
- [ 0  0  0  0  0  0  0 23]
- [ 0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>16</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>[[  0  13   1   4  18   5  17   7   2  16  16  14   4  18   8   1]
  [  0   0   2   2   0   0   0   1   4   1   0   0   1   2   0   0]
@@ -1903,11 +1871,43 @@
  [  0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]]</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>606</v>
+      </c>
+      <c r="G42" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[[ 0 18  4  8  1  1  8 32]
+ [ 0  0  8  1  2  4  0  3]
+ [ 0  0  0  6  0  0  4  2]
+ [ 0  0  0  0  9  3  3  0]
+ [ 0  0  0  0  0  8  2  2]
+ [ 0  0  0  0  0  0  6 10]
+ [ 0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F43" t="n">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>192</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2031,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
@@ -2189,12 +2189,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
         <v>12</v>
@@ -2203,41 +2203,9 @@
         <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
-        <is>
-          <t>[[ 0 15 20  4 21  6 15 15]
- [ 0  0  0  0  2  8  4  1]
- [ 0  0  0  6  3  6  3  2]
- [ 0  0  0  0  8  0  0  2]
- [ 0  0  0  0  0  3  8 23]
- [ 0  0  0  0  0  0 15  8]
- [ 0  0  0  0  0  0  0 45]
- [ 0  0  0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>14</v>
-      </c>
-      <c r="B54" t="n">
-        <v>12</v>
-      </c>
-      <c r="C54" t="n">
-        <v>8</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>[[ 0  1  4  3  2 18 12  7  2 13  6  1  5 22]
  [ 0  0  1  0  0  0  0  0  0  0  0  0  0  0]
@@ -2255,57 +2223,59 @@
  [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>12</v>
+      </c>
+      <c r="G53" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[[ 0 15 20  4 21  6 15 15]
+ [ 0  0  0  0  2  8  4  1]
+ [ 0  0  0  6  3  6  3  2]
+ [ 0  0  0  0  8  0  0  2]
+ [ 0  0  0  0  0  3  8 23]
+ [ 0  0  0  0  0  0 15  8]
+ [ 0  0  0  0  0  0  0 45]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>[[ 0 48 20  3 10 15]
- [ 0  0 15 12 15  6]
- [ 0  0  0  2  5 28]
- [ 0  0  0  0  0 17]
- [ 0  0  0  0  0 30]
- [ 0  0  0  0  0  0]]</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>16</v>
-      </c>
-      <c r="B56" t="n">
-        <v>10</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4</v>
-      </c>
-      <c r="D56" t="n">
-        <v>5</v>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>[[ 0  0  0  1 10  3  1  0  1  0  1  2  1  5  0 15]
  [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
@@ -2325,27 +2295,27 @@
  [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>4</v>
-      </c>
-      <c r="G56" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>4</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
         <v>3</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>[[ 0 43  4  1]
  [ 0  0 10 33]
@@ -2353,11 +2323,41 @@
  [ 0  0  0  0]]</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[[ 0 48 20  3 10 15]
+ [ 0  0 15 12 15  6]
+ [ 0  0  0  2  5 28]
+ [ 0  0  0  0  0 17]
+ [ 0  0  0  0  0 30]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2425,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -2463,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="G60" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -2499,7 +2499,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62">
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2605,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -2671,23 +2671,51 @@
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B67" t="n">
         <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[[ 0 48 20 12]
+ [ 0  0 33 15]
+ [ 0  0  0 53]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>8</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
         <v>5</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>[[ 0  8  3  7  8  3 20 11]
  [ 0  0  0  2  2  0  2  2]
@@ -2699,39 +2727,11 @@
  [ 0  0  0  0  0  0  0  0]]</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[[ 0 48 20 12]
- [ 0  0 33 15]
- [ 0  0  0 53]
- [ 0  0  0  0]]</t>
-        </is>
-      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2761,7 +2761,5011 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>12</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[[ 0  1  0  1 19 12  1  1  0  1  3  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  7  3  4  1  4  0]
+ [ 0  0  0  0  0  0  1  2  2  2  1  4]
+ [ 0  0  0  0  0  0  0  0  1  3  3  2]
+ [ 0  0  0  0  0  0  0  0  1  4  1  1]
+ [ 0  0  0  0  0  0  0  0  0  2  4  2]
+ [ 0  0  0  0  0  0  0  0  0  0  3 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>13</v>
+      </c>
+      <c r="G70" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>14</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[[ 0  4  4  3  0  0  0  9  2  2  0  1  2  5]
+ [ 0  0  0  0  0  0  0  2  0  0  0  2  0  0]
+ [ 0  0  0  0  0  0  0  1  1  1  0  0  1  0]
+ [ 0  0  0  0  1  2  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  2  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  1 11  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  2  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  3  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  6  1  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 11]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>16</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[[ 0  2  1  3  0  1  0  1  7  0  1  1  0  2  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  2  0  3  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  2  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  2  3  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>17</v>
+      </c>
+      <c r="G72" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[[ 0 48  9 63]
+ [ 0  0 33 15]
+ [ 0  0  0 42]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>12</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[[ 0  8  8  0  2 18  3  0  2 10  0 13]
+ [ 0  0  0  0  0  2  1  0  0  4  0  1]
+ [ 0  0  0  0  0  1  1  0  0  3  3  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  2  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  9  2  1  0  2  9]
+ [ 0  0  0  0  0  0  0  1  0  4  1  8]
+ [ 0  0  0  0  0  0  0  0  0  1  1  1]
+ [ 0  0  0  0  0  0  0  0  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0 14  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0 21]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[[0 0 1 0 1 2 0 4 1 3]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 2 1]
+ [0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 5]
+ [0 0 0 0 0 0 0 0 0 3]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[[ 0  1 13 10  2  6]
+ [ 0  0  0  0  1  0]
+ [ 0  0  0 11  1  1]
+ [ 0  0  0  0 14  7]
+ [ 0  0  0  0  0 18]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>14</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[[ 0  4  0 15  2  6 13 13 14  8 10 10  4  1]
+ [ 0  0  0  0  1  0  0  0  0  0  1  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  2  0  0  2  6  1  3  1]
+ [ 0  0  0  0  0  0  0  1  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  2  0  2  1  0]
+ [ 0  0  0  0  0  0  0  1  3  7  3  0  1  0]
+ [ 0  0  0  0  0  0  0  0  1  0  5  3  3  3]
+ [ 0  0  0  0  0  0  0  0  0  2  4  4  8  1]
+ [ 0  0  0  0  0  0  0  0  0  0  5 13  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1 32  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  6 29]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 62]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>14</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[[ 0  6  6  1  7 18  4  0  7  8 15 11  1 16]
+ [ 0  0  0  0  0  1  2  0  1  1  1  0  0  0]
+ [ 0  0  0  2  0  1  0  0  0  0  1  1  1  0]
+ [ 0  0  0  0  1  2  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  2  2  2  1]
+ [ 0  0  0  0  0  0  7  2  3  3  1  1  1  4]
+ [ 0  0  0  0  0  0  0  6  0  6  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  6  0  0  0  2  0]
+ [ 0  0  0  0  0  0  0  0  0  5  0  6  4  3]
+ [ 0  0  0  0  0  0  0  0  0  0 10 13  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 22  8  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 42 15]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 61]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[[0 0 7 2 0 2 0 0 1 0]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 2 0 3 0 2 0 0]
+ [0 0 0 0 0 0 0 0 1 3]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 1 2 1]
+ [0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 3 1]
+ [0 0 0 0 0 0 0 0 0 7]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[[ 0 17  0 10  2  3]
+ [ 0  0  0  4  1 12]
+ [ 0  0  0  0  0  0]
+ [ 0  0  0  0  0 14]
+ [ 0  0  0  0  0  3]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[[ 0  1  9  9  6 11]
+ [ 0  0  0  0  0  1]
+ [ 0  0  0  3  6  0]
+ [ 0  0  0  0 11  1]
+ [ 0  0  0  0  0 23]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4</v>
+      </c>
+      <c r="B82" t="n">
+        <v>12</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[[ 0 45 10 65]
+ [ 0  0  2 43]
+ [ 0  0  0 12]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[[ 0  1  5 11  0 12  7  0  0 14  1  2  1  0  5  1]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  1  3  0]
+ [ 0  0  0  0  2  0  0  1  0  5  0  0  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  6  0  4  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  3  0  3  1  2]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  1  0  1  0  3]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0 12  1  0  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  1  4  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  7  3  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  3 12  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 18  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 41]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>12</v>
+      </c>
+      <c r="B84" t="n">
+        <v>8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[[ 0  6  1 13  5  4  1  7  4  4  6 13]
+ [ 0  0  1  0  4  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  2  0  0]
+ [ 0  0  0  0  2  1  6  3  0  0  1  0]
+ [ 0  0  0  0  0  0  4  0  1  6  0  0]
+ [ 0  0  0  0  0  0  1  2  0  0  1  1]
+ [ 0  0  0  0  0  0  0  1  1  4  3  3]
+ [ 0  0  0  0  0  0  0  0  5  2  3  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0 11]
+ [ 0  0  0  0  0  0  0  0  0  0 15  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0 29]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[[ 0  3  1  2  2  0  1  0  0  2  0  2  3  1  3  0]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0  0  0  2  0]
+ [ 0  0  0  1  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  2  0]
+ [ 0  0  0  0  0  1  1  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  3  0  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  1  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>19</v>
+      </c>
+      <c r="G85" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>14</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[[ 0  0  0  0  1  2  0  9  1  0  3 12  3  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  2  0  3  3]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 10  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" t="n">
+        <v>12</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[[ 0  2  4 24 17  1]
+ [ 0  0  0  2  0  0]
+ [ 0  0  0  0  2  2]
+ [ 0  0  0  0 24  2]
+ [ 0  0  0  0  0 43]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4</v>
+      </c>
+      <c r="B88" t="n">
+        <v>8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[[ 0 41 39  0]
+ [ 0  0 34  7]
+ [ 0  0  0 73]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4</v>
+      </c>
+      <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[[ 0 45 11 24]
+ [ 0  0  2 43]
+ [ 0  0  0 13]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>10</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[[ 0  0  5  4 13 25  7  6]
+ [ 0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  2  3  0  0]
+ [ 0  0  0  0  0  0  2  2]
+ [ 0  0  0  0  0  0 10  5]
+ [ 0  0  0  0  0  0  0 28]
+ [ 0  0  0  0  0  0  0 19]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[[0 8 2 0 4 1 1 1 4 3]
+ [0 0 0 0 2 0 2 1 0 3]
+ [0 0 0 0 0 0 1 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 1 1 1 2]
+ [0 0 0 0 0 0 0 0 0 2]
+ [0 0 0 0 0 0 0 2 0 3]
+ [0 0 0 0 0 0 0 0 0 6]
+ [0 0 0 0 0 0 0 0 0 5]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[[0 5 2 5 1 3]
+ [0 0 2 1 1 1]
+ [0 0 0 0 0 4]
+ [0 0 0 0 4 2]
+ [0 0 0 0 0 6]
+ [0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[[ 0 25  4 12  1  6  7  9]
+ [ 0  0  1  8  0  1  9  6]
+ [ 0  0  0  1  3  0  1  0]
+ [ 0  0  0  0  6  2 11  2]
+ [ 0  0  0  0  0  0  9  1]
+ [ 0  0  0  0  0  0  9  0]
+ [ 0  0  0  0  0  0  0 46]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>16</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[[ 0  0  3  0  6  4  3  2  1  0  0 16  2  5  1  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  0  0  0  2  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  2  1  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  4  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  2  0  0  1  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  1  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  3  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  7  4  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  3  0  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4 13]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 13]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>16</v>
+      </c>
+      <c r="B95" t="n">
+        <v>12</v>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[[ 0 11  8 16  3 29  5  1  4  6  4  2 20  2 29  4]
+ [ 0  0  1  0  0  1  1  0  0  1  0  2  1  3  0  1]
+ [ 0  0  0  1  0  0  0  0  2  0  4  1  0  1  0  0]
+ [ 0  0  0  0  1  1  2  0  1  0  3  4  0  2  1  2]
+ [ 0  0  0  0  0  0  1  1  0  0  0  1  1  0  0  0]
+ [ 0  0  0  0  0  0  0  3  3  2 20  0  2  1  0  0]
+ [ 0  0  0  0  0  0  0  2  0  0  2  3  0  0  1  1]
+ [ 0  0  0  0  0  0  0  0  0  2  1  0  0  0  1  3]
+ [ 0  0  0  0  0  0  0  0  0  2  1  1  1  3  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  2  1  4  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0 12  5 10  2  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  4 13 10  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 14 16  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 24 29]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 90]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>693</v>
+      </c>
+      <c r="G95" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>12</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[[ 0  8  1  3  1  0 22 13  4  1  2  5]
+ [ 0  0  0  1  1  0  1  0  3  1  1  0]
+ [ 0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  1  1  2  0  0  0  0  0]
+ [ 0  0  0  0  0  1  1  0  1  0  1  0]
+ [ 0  0  0  0  0  0  0  1  0  0  1  0]
+ [ 0  0  0  0  0  0  0  2  4  1  3 16]
+ [ 0  0  0  0  0  0  0  0  3  1  9  3]
+ [ 0  0  0  0  0  0  0  0  0  4  8  3]
+ [ 0  0  0  0  0  0  0  0  0  0  5  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0 30]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>14</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[[ 0  0  0  1  0  6  0  3  0  1  0  5  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  3  0  0  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  1]
+ [ 0  0  0  0  0  0  0  0  1  0  2  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  2  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  5  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>6</v>
+      </c>
+      <c r="G97" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[[ 0 18 26  5 32  2  5  5  1  3 44  3]
+ [ 0  0  6  1  0  0  1  1  1  4  1  3]
+ [ 0  0  0  1  2  4  1  0  0 19  0  5]
+ [ 0  0  0  0  1  1  0  0  4  1  0  0]
+ [ 0  0  0  0  0 12  7  2  4  0  6  4]
+ [ 0  0  0  0  0  0  2  4  4  1  5  3]
+ [ 0  0  0  0  0  0  0  0  6  0  1  9]
+ [ 0  0  0  0  0  0  0  0  5  1  4  2]
+ [ 0  0  0  0  0  0  0  0  0  7  8 10]
+ [ 0  0  0  0  0  0  0  0  0  0 28  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0 97]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>35</v>
+      </c>
+      <c r="G98" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>14</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="n">
+        <v>12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[[ 0  1  0  7  6  4  2  1 17  2 10  3  9 10]
+ [ 0  0  1  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  1  2  1  0  0  0  0  1  2  0]
+ [ 0  0  0  0  0  0  2  0  2  2  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  1  2  0  2  1  0]
+ [ 0  0  0  0  0  0  0  1  4  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  5  1 13  1  4]
+ [ 0  0  0  0  0  0  0  0  0  0  7  4  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  6  9  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 10 21]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 32]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6</v>
+      </c>
+      <c r="B100" t="n">
+        <v>12</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[[ 0  3 13  2  2  4]
+ [ 0  0  0  0  2  1]
+ [ 0  0  0  1  8  4]
+ [ 0  0  0  0  0  3]
+ [ 0  0  0  0  0 12]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[[ 0 13 31  4]
+ [ 0  0  6  7]
+ [ 0  0  0 37]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>8</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[[ 0  2  4 20  5  6 23 12]
+ [ 0  0  1  1  0  0  0  0]
+ [ 0  0  0  0  1  1  3  0]
+ [ 0  0  0  0  6  4  8  3]
+ [ 0  0  0  0  0  3  7  2]
+ [ 0  0  0  0  0  0  6  8]
+ [ 0  0  0  0  0  0  0 47]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10</v>
+      </c>
+      <c r="C103" t="n">
+        <v>12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[[ 0  4 13 22 72  9]
+ [ 0  0  1  1  1  1]
+ [ 0  0  0  8  5  1]
+ [ 0  0  0  0 16 15]
+ [ 0  0  0  0  0 94]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>16</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[[ 0  1  3  0  0  9  2  3  7  2  1  3  2  4  1  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  2  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  1  5  0  0  0  0  0  0  2]
+ [ 0  0  0  0  0  0  0  1  1  1  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  5  4  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  1  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  1  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  4  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[[ 0 12 32  1 44  7]
+ [ 0  0  0  5  2  5]
+ [ 0  0  0 13  0 19]
+ [ 0  0  0  0 16  3]
+ [ 0  0  0  0  0 62]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[[ 0  3 16  4  2  9  9  7  2  8]
+ [ 0  0  0  0  0  0  1  1  0  1]
+ [ 0  0  0  1  5  0  3  5  0  2]
+ [ 0  0  0  0  0  2  0  2  0  1]
+ [ 0  0  0  0  0  2  1  3  1  0]
+ [ 0  0  0  0  0  0  3  5  1  4]
+ [ 0  0  0  0  0  0  0  8  8  1]
+ [ 0  0  0  0  0  0  0  0 15 16]
+ [ 0  0  0  0  0  0  0  0  0 27]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>14</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12</v>
+      </c>
+      <c r="C107" t="n">
+        <v>8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[[ 0 17  7  2  0 18 13  1  2  6  3 19  0  8]
+ [ 0  0  1  1  1  1  0  2  8  1  2  0  0  0]
+ [ 0  0  0  0  0  2  0  2  1  1  2  0  0  0]
+ [ 0  0  0  0  1  2  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  2  3  1 16  0  1  0]
+ [ 0  0  0  0  0  0  0  6  0  6  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  2  5  0  1  1  4]
+ [ 0  0  0  0  0  0  0  0  0  1  1  7  7  1]
+ [ 0  0  0  0  0  0  0  0  0  0 14  1  6  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 21 16  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 21 29]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 52]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[[ 0 10 24 18  2 66]
+ [ 0  0  3  0  4  3]
+ [ 0  0  0  5 11 11]
+ [ 0  0  0  0  0 23]
+ [ 0  0  0  0  0 17]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>8</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[[ 0 10 16 17 15 10  9 23]
+ [ 0  0  6  0  0  1  3  0]
+ [ 0  0  0  3  1  2 16  0]
+ [ 0  0  0  0  0  2  0 18]
+ [ 0  0  0  0  0 11  4  1]
+ [ 0  0  0  0  0  0 23  3]
+ [ 0  0  0  0  0  0  0 55]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[[ 0 17 27 28]
+ [ 0  0  6 11]
+ [ 0  0  0 33]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10</v>
+      </c>
+      <c r="B111" t="n">
+        <v>8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[[ 0 16  1  1  0 11 17  0  0  2]
+ [ 0  0  4  4  2  0  1  1  2  2]
+ [ 0  0  0  2  0  0  1  2  0  0]
+ [ 0  0  0  0  1  3  1  1  0  1]
+ [ 0  0  0  0  0  0  3  0  0  0]
+ [ 0  0  0  0  0  0  0  1  5  8]
+ [ 0  0  0  0  0  0  0  9 10  4]
+ [ 0  0  0  0  0  0  0  0  9  5]
+ [ 0  0  0  0  0  0  0  0  0 26]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12</v>
+      </c>
+      <c r="C112" t="n">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[[ 0 51  6  2  7 22  8  0]
+ [ 0  0  7  5 20  4 14  1]
+ [ 0  0  0  2  0  2  8  1]
+ [ 0  0  0  0  4  1  2  2]
+ [ 0  0  0  0  0 11 11  9]
+ [ 0  0  0  0  0  0 36  4]
+ [ 0  0  0  0  0  0  0 79]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[[ 0  2  4  4 15  4  4  2  3 16  1  5]
+ [ 0  0  1  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  3  0  1  0]
+ [ 0  0  0  0  1  1  0  0  1  1  0  0]
+ [ 0  0  0  0  0  1  3  0  2  1  9  0]
+ [ 0  0  0  0  0  0  0  1  1  3  0  1]
+ [ 0  0  0  0  0  0  0  0  1  3  3  2]
+ [ 0  0  0  0  0  0  0  0  2  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  7  4  2]
+ [ 0  0  0  0  0  0  0  0  0  0  5 26]
+ [ 0  0  0  0  0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>12</v>
+      </c>
+      <c r="B114" t="n">
+        <v>10</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[[ 0  0  4  1  3  3  2  1  1  4  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  1  1  0  0  1  0  0  1]
+ [ 0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  4  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  4  0  2  0  2  0]
+ [ 0  0  0  0  0  0  0  2  1  3  0  0]
+ [ 0  0  0  0  0  0  0  0  2  0  0  2]
+ [ 0  0  0  0  0  0  0  0  0  5  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0 12  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>14</v>
+      </c>
+      <c r="B115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[[0 1 1 0 0 1 2 2 4 1 0 0 4 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 2 1]
+ [0 0 0 0 0 0 0 0 0 0 0 0 2 1]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 3]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 2]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 8]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>8</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[[ 0 21 23  4  3  7 14  0]
+ [ 0  0  6  0  6  3  6  0]
+ [ 0  0  0  7  1 15  4  2]
+ [ 0  0  0  0  0  3  4  4]
+ [ 0  0  0  0  0  6  4  0]
+ [ 0  0  0  0  0  0 22 12]
+ [ 0  0  0  0  0  0  0 54]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>16</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[[ 0  4  7 11  8  2  3  0  1  2  0  2  3  0  4  1]
+ [ 0  0  1  1  0  0  0  1  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  2  2  0  1  1  0  2  0  0  0  0]
+ [ 0  0  0  0  2  1  0  0  2  0  1  0  0  1  3  2]
+ [ 0  0  0  0  0  0  3  0  1  1  1  0  4  0  0  0]
+ [ 0  0  0  0  0  0  0  1  1  0  0  0  0  1  1  1]
+ [ 0  0  0  0  0  0  0  2  2  0  0  0  1  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0  0  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  5  0  2  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  0  1  3  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  2  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  4  1  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  8  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  3 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>19</v>
+      </c>
+      <c r="G117" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[[ 0  6 29  4  1  8]
+ [ 0  0  5  1  0  0]
+ [ 0  0  0 13  4 17]
+ [ 0  0  0  0 11  7]
+ [ 0  0  0  0  0 16]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4</v>
+      </c>
+      <c r="B119" t="n">
+        <v>8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[[ 0 20 33 27]
+ [ 0  0 12  8]
+ [ 0  0  0 45]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>16</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[[ 0  2 15 11 23 14  0 18  2  5  9  4  3  2 19 17]
+ [ 0  0  0  0  1  1  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  4  1  1  0  0  1  0  0  0  2  1  0  5]
+ [ 0  0  0  0  0  3  4  0  1  3  3  0  0  1  0  0]
+ [ 0  0  0  0  0  2  0  2  2  9  0  7  0  3  0  0]
+ [ 0  0  0  0  0  0  1  6  1  4  2  0  0  4  1  2]
+ [ 0  0  0  0  0  0  0  0  1  0  2  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  2  5  0  6  2  5  0  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  0  0  2  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0 11  3  0 12  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1 14  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  3  4 19  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  7  3  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 42  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 98]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>48</v>
+      </c>
+      <c r="G120" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>12</v>
+      </c>
+      <c r="B121" t="n">
+        <v>10</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[[ 0  1  5  1  2  0  0 14 11  1  4  1]
+ [ 0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  1  4  0  0  0  0  0  0  0]
+ [ 0  0  0  0  1  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  2  0  1  0  2  2  1]
+ [ 0  0  0  0  0  0  0  1  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0 12  2  1  1]
+ [ 0  0  0  0  0  0  0  0  0  1 12 11]
+ [ 0  0  0  0  0  0  0  0  0  0  5  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0 25]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12</v>
+      </c>
+      <c r="C122" t="n">
+        <v>8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[[ 0  4  9  5 14  0 11 19 21 13]
+ [ 0  0  0  0  0  0  0  0  3  1]
+ [ 0  0  0  1  6  0  0  0  2  0]
+ [ 0  0  0  0  0  0  3  0  2  1]
+ [ 0  0  0  0  0  7  0  3  4  6]
+ [ 0  0  0  0  0  0  1  1  5  0]
+ [ 0  0  0  0  0  0  0  2 13  0]
+ [ 0  0  0  0  0  0  0  0 25  0]
+ [ 0  0  0  0  0  0  0  0  0 75]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="n">
+        <v>10</v>
+      </c>
+      <c r="C123" t="n">
+        <v>10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[[ 0 28 19 13  1  2  6  3 19  9]
+ [ 0  0  3  4  3  9  4  3  0  2]
+ [ 0  0  0  2  8  5  0  0  3  4]
+ [ 0  0  0  0  1  4  8  0  0  6]
+ [ 0  0  0  0  0  3  0  3  3  4]
+ [ 0  0  0  0  0  0  3  4  0 16]
+ [ 0  0  0  0  0  0  0  8  0 13]
+ [ 0  0  0  0  0  0  0  0 15  6]
+ [ 0  0  0  0  0  0  0  0  0 40]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>14</v>
+      </c>
+      <c r="B124" t="n">
+        <v>10</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[[ 0  8  9  1  4  0  4 13  2  6  0  5  2  6]
+ [ 0  0  0  0  2  1  0  1  1  1  0  2  0  0]
+ [ 0  0  0  0  3  0  2  1  0  2  0  0  1  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  1  2  0  1  1  0  3  0]
+ [ 0  0  0  0  0  0  0  2  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  1  0  0  5  1  0]
+ [ 0  0  0  0  0  0  0  0  9  8  1  0  0  2]
+ [ 0  0  0  0  0  0  0  0  0  1  1  4  6  1]
+ [ 0  0  0  0  0  0  0  0  0  0  6  7  5  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  8  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 24  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 42]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[[ 0 14  6  7  2  7]
+ [ 0  0  1  2  2  9]
+ [ 0  0  0  0  0  7]
+ [ 0  0  0  0  0  9]
+ [ 0  0  0  0  0  4]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>16</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>10</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[[ 0  5  8  2  1  4  3  0  5  4  2  1  8 10  2  5]
+ [ 0  0  1  1  1  0  0  0  0  0  0  0  0  0  1  1]
+ [ 0  0  0  0  1  0  1  0  1  2  0  1  0  1  2  0]
+ [ 0  0  0  0  0  1  1  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  1  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  1  3  0  1]
+ [ 0  0  0  0  0  0  0  0  1  0  2  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  3  0  5  0]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0  1  0  3  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  3  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  2 14]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 16  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 36]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="n">
+        <v>8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[[ 0  4  0  6 10 12]
+ [ 0  0  1  1  1  1]
+ [ 0  0  0  0  0  1]
+ [ 0  0  0  0  0  7]
+ [ 0  0  0  0  0 11]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[[ 0  5  5  0  5  1 24 20  9  3]
+ [ 0  0  0  0  0  1  3  0  1  0]
+ [ 0  0  0  3  0  0  0  2  0  0]
+ [ 0  0  0  0  0  0  1  0  0  2]
+ [ 0  0  0  0  0  1  1  0  0  3]
+ [ 0  0  0  0  0  0  0  0  2  1]
+ [ 0  0  0  0  0  0  0 10 14  5]
+ [ 0  0  0  0  0  0  0  0  9 23]
+ [ 0  0  0  0  0  0  0  0  0 35]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>14</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[[ 0  0  1  1  1  2  3  3  0  4  1  0 12  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  1  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  2  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  2  2  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  3  1]
+ [ 0  0  0  0  0  0  0  0  0  2  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  3  3  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  2  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 21]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>14</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[[ 0  4  2  0 10  2  0  6  2  0  8  1  1  0]
+ [ 0  0  0  0  1  0  0  0  0  0  1  1  0  1]
+ [ 0  0  0  0  0  0  0  0  1  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  2  0  2  1  3  2  0]
+ [ 0  0  0  0  0  0  0  0  0  3  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  2  1  4  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  3  0]
+ [ 0  0  0  0  0  0  0  0  0  0  4  2  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 15  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  8 16]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 18]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[[ 0  6  4  7  9 10]
+ [ 0  0  1  0  3  2]
+ [ 0  0  0  3  1  1]
+ [ 0  0  0  0  3  7]
+ [ 0  0  0  0  0 16]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[[ 0  1  6  5  7  9 10  4 28  2]
+ [ 0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  1  2  0  1  2  0  0]
+ [ 0  0  0  0  0  0  3  0  2  1]
+ [ 0  0  0  0  0  0  7  1  1  0]
+ [ 0  0  0  0  0  0  1  2  2  4]
+ [ 0  0  0  0  0  0  0  2  5 16]
+ [ 0  0  0  0  0  0  0  0  7  4]
+ [ 0  0  0  0  0  0  0  0  0 45]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10</v>
+      </c>
+      <c r="B133" t="n">
+        <v>10</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[[ 0  6  3 21 12  7  2 20  7 22]
+ [ 0  0  2  1  0  0  1  2  0  0]
+ [ 0  0  0  3  0  0  0  2  0  0]
+ [ 0  0  0  0 10  7  2  3  3  0]
+ [ 0  0  0  0  0  1  6  8  7  0]
+ [ 0  0  0  0  0  0  6  8  0  1]
+ [ 0  0  0  0  0  0  0  5 10  2]
+ [ 0  0  0  0  0  0  0  0 17 31]
+ [ 0  0  0  0  0  0  0  0  0 44]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>16</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>10</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[[ 0 12  0  0  2  5  4  5 12  1  1  4  2  1  2  9]
+ [ 0  0  2  2  0  1  1  1  0  1  2  0  0  0  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  0  1]
+ [ 0  0  0  0  0  1  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  2  0  3  0  1  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  2  1  0  0  1  1  2]
+ [ 0  0  0  0  0  0  0  0  1  0  2  0  0  2  0  1]
+ [ 0  0  0  0  0  0  0  0  0  7  0  3  0  2  3  1]
+ [ 0  0  0  0  0  0  0  0  0  0  3  3  3  0  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 10  2  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 10  6  0  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  7  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 19]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>7</v>
+      </c>
+      <c r="G134" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>8</v>
+      </c>
+      <c r="B135" t="n">
+        <v>10</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[[ 0  8  6 25  1  8 11  1]
+ [ 0  0  0  0  1  3  4  0]
+ [ 0  0  0  0  2  1  2  1]
+ [ 0  0  0  0 10  4 10  1]
+ [ 0  0  0  0  0  7  3  4]
+ [ 0  0  0  0  0  0 15  8]
+ [ 0  0  0  0  0  0  0 45]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14</v>
+      </c>
+      <c r="B136" t="n">
+        <v>10</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[[ 0 10  7  5  0 10  7  0  2  0  0  4  9  6]
+ [ 0  0  0  0  2  2  0  1  1  3  1  0  0  0]
+ [ 0  0  0  0  0  1  1  1  2  1  1  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  0  0  1  0  3]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  4  0  2  0  5  2  1]
+ [ 0  0  0  0  0  0  0  1  2  0  0  5  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  2  1  4  0]
+ [ 0  0  0  0  0  0  0  0  0  3  3  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  3  5  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  5  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  4 21]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 27]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>31</v>
+      </c>
+      <c r="G136" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>12</v>
+      </c>
+      <c r="B137" t="n">
+        <v>10</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[[ 0  3  0  7  0  3  0  6  0  2 11  8]
+ [ 0  0  2  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  1  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  1  2  2  3  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  1  0  2  0  0]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  2  0  9]
+ [ 0  0  0  0  0  0  0  0  0  1  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  4  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" t="n">
+        <v>8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[[ 0 22  3 18  7  0 13 19  3 11]
+ [ 0  0  4  0  0  1  2 12  3  0]
+ [ 0  0  0  0  3  1  2  1  0  0]
+ [ 0  0  0  0  1  6  8  0  1  2]
+ [ 0  0  0  0  0  1  1  3  0  6]
+ [ 0  0  0  0  0  0  0  3  4  2]
+ [ 0  0  0  0  0  0  0  9 15  2]
+ [ 0  0  0  0  0  0  0  0 12 35]
+ [ 0  0  0  0  0  0  0  0  0 38]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[[ 0 45  5 30]
+ [ 0  0 19 26]
+ [ 0  0  0 24]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[[0 5 0 2 5 2 2 1 2 5]
+ [0 0 1 0 0 1 1 2 0 0]
+ [0 0 0 0 0 0 0 0 1 0]
+ [0 0 0 0 0 0 0 0 1 1]
+ [0 0 0 0 0 2 2 0 1 0]
+ [0 0 0 0 0 0 0 5 0 0]
+ [0 0 0 0 0 0 0 2 1 2]
+ [0 0 0 0 0 0 0 0 2 8]
+ [0 0 0 0 0 0 0 0 0 8]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>12</v>
+      </c>
+      <c r="B141" t="n">
+        <v>10</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[[ 0  3  0  0  2  2  1  0  0  5  6  1]
+ [ 0  0  1  0  1  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  1  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  6  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>16</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[[ 0 17  0 28  0  2 12  4  3  5  4  6  9 20 26  8]
+ [ 0  0  2  4  0  2  2  2  0  0  2  0  3  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  6  1  0  2  2  6  6  1  2  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0  0  3]
+ [ 0  0  0  0  0  0  0  6  0  3  0  1  3  2  4  1]
+ [ 0  0  0  0  0  0  0  0  1  5  0  1  2  0  2  2]
+ [ 0  0  0  0  0  0  0  0  0  0  1  2  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  0  6  3  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2  2  3  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 10  6  0  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 19  5 11]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 39 19]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 82]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1343</v>
+      </c>
+      <c r="G142" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[[ 0  5  8 14  3 17  9 16]
+ [ 0  0  1  0  0  1  3  0]
+ [ 0  0  0  2  2  1  0  4]
+ [ 0  0  0  0  4 10  2  0]
+ [ 0  0  0  0  0  1  3  5]
+ [ 0  0  0  0  0  0 17 13]
+ [ 0  0  0  0  0  0  0 34]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[[ 0 43  4 25]
+ [ 0  0 10 33]
+ [ 0  0  0 14]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>8</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12</v>
+      </c>
+      <c r="C145" t="n">
+        <v>8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[[ 0  7  2 17 25  2 40  3]
+ [ 0  0  1  2  1  2  1  0]
+ [ 0  0  0  3  0  0  0  0]
+ [ 0  0  0  0  0  6  4 12]
+ [ 0  0  0  0  0 17  8  1]
+ [ 0  0  0  0  0  0  1 26]
+ [ 0  0  0  0  0  0  0 54]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[[ 0  3 12  2 13  5 12  0  0  1]
+ [ 0  0  1  0  1  1  0  0  0  0]
+ [ 0  0  0  5  0  2  2  0  1  3]
+ [ 0  0  0  0  0  2  1  3  0  1]
+ [ 0  0  0  0  0  0  9  1  1  3]
+ [ 0  0  0  0  0  0  2  2  5  1]
+ [ 0  0  0  0  0  0  0 10  7  9]
+ [ 0  0  0  0  0  0  0  0 12  4]
+ [ 0  0  0  0  0  0  0  0  0 26]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>12</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[[ 0 41 36  5  3 15  1  1  3  0  9 30]
+ [ 0  0  3  0  0  3 10  8  8  7  0  2]
+ [ 0  0  0  4  1  1 17  1  2  1 11  1]
+ [ 0  0  0  0  2  0  1  3  0  1  1  1]
+ [ 0  0  0  0  0  0  2  0  2  0  0  2]
+ [ 0  0  0  0  0  0  7  4  4  0  4  0]
+ [ 0  0  0  0  0  0  0  2 10  6 12  8]
+ [ 0  0  0  0  0  0  0  0  4  1  5  9]
+ [ 0  0  0  0  0  0  0  0  0  7  8 18]
+ [ 0  0  0  0  0  0  0  0  0  0 21  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0 71]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>26</v>
+      </c>
+      <c r="G147" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>8</v>
+      </c>
+      <c r="B148" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" t="n">
+        <v>10</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[[ 0 30  9  7  0  7 41  6]
+ [ 0  0  0  9  0  7  7  7]
+ [ 0  0  0  5  2  1  0  1]
+ [ 0  0  0  0 11  1  9  0]
+ [ 0  0  0  0  0  7  6  0]
+ [ 0  0  0  0  0  0 14  9]
+ [ 0  0  0  0  0  0  0 77]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6</v>
+      </c>
+      <c r="B149" t="n">
+        <v>10</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[[ 0 26 24 25 33 12]
+ [ 0  0  3  5 17  1]
+ [ 0  0  0 13  1 13]
+ [ 0  0  0  0 36  7]
+ [ 0  0  0  0  0 87]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[[ 0  4 24 20]
+ [ 0  0  0  4]
+ [ 0  0  0 24]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>16</v>
+      </c>
+      <c r="B151" t="n">
+        <v>10</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[[ 0  3  8  1  8  0  0  4  3  2  0  0  1  2  4  4]
+ [ 0  0  2  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  1  0  0  3  3  1  1  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  2  1  0  0  2  0  2  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  5  0  1  0  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  5  0  2  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  2  1  4  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  3  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  5  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  4  4  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 10  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 28]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>26</v>
+      </c>
+      <c r="G151" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>8</v>
+      </c>
+      <c r="B152" t="n">
+        <v>10</v>
+      </c>
+      <c r="C152" t="n">
+        <v>10</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[[ 0 32  8 32 18  2  2  6]
+ [ 0  0  8  5  4  1 11  3]
+ [ 0  0  0  5  1  9  1  0]
+ [ 0  0  0  0  4 28  7  3]
+ [ 0  0  0  0  0  5  7 15]
+ [ 0  0  0  0  0  0  7 38]
+ [ 0  0  0  0  0  0  0 35]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>16</v>
+      </c>
+      <c r="B153" t="n">
+        <v>10</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[[ 0  9  0  2  2  2  7  7  0  2  0  1  1  3  2  2]
+ [ 0  0  1  2  0  0  0  2  0  0  0  1  2  1  0  0]
+ [ 0  0  0  1  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  2  0  2  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  1  1  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  2  0  0  2  2  3  0  2]
+ [ 0  0  0  0  0  0  0  0  3  0  3  0  0  1  1  1]
+ [ 0  0  0  0  0  0  0  0  0  5  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  3  1  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  0  2  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  4  1  2  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  4  1  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  1 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>27</v>
+      </c>
+      <c r="G153" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[[ 0 41 30  1]
+ [ 0  0 34  7]
+ [ 0  0  0 64]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>6</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[[ 0  7  0 45 28 16]
+ [ 0  0  0  2  5  0]
+ [ 0  0  0  0  0  0]
+ [ 0  0  0  0  0 47]
+ [ 0  0  0  0  0 33]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>14</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[[ 0  1  6  4 11 25  9  6  5  2  2  4  3 18]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  1  0  1  0  0  0  1  0  1  0  2]
+ [ 0  0  0  0  0  0  1  1  0  0  1  0  2  0]
+ [ 0  0  0  0  0  0  1  4  1  1  1  0  0  3]
+ [ 0  0  0  0  0  0  1  3  0  2  8  9  1  2]
+ [ 0  0  0  0  0  0  0  1  7  1  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  1  2  5  1  1  5]
+ [ 0  0  0  0  0  0  0  0  0  1  5  1  5  2]
+ [ 0  0  0  0  0  0  0  0  0  0  6  4  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 14  7  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1 35]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>37</v>
+      </c>
+      <c r="G156" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[[ 0  0  4 20  8  5  9  5  6  3]
+ [ 0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  2  0  1]
+ [ 0  0  0  0  0  3  0  0  9  8]
+ [ 0  0  0  0  0  1  5  2  0  0]
+ [ 0  0  0  0  0  0  2  5  2  0]
+ [ 0  0  0  0  0  0  0  8  8  1]
+ [ 0  0  0  0  0  0  0  0  0 22]
+ [ 0  0  0  0  0  0  0  0  0 25]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>12</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>10</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[[ 0  5 19  4 10  1  1  3  2  7  7  1]
+ [ 0  0  1  2  0  0  0  0  2  0  0  0]
+ [ 0  0  0  4  0  3  6  2  0  3  1  1]
+ [ 0  0  0  0  7  1  0  0  2  0  0  0]
+ [ 0  0  0  0  0  0  2  1  2  6  5  1]
+ [ 0  0  0  0  0  0  3  0  0  2  0  0]
+ [ 0  0  0  0  0  0  0  3  4  3  2  0]
+ [ 0  0  0  0  0  0  0  0  2  3  0  4]
+ [ 0  0  0  0  0  0  0  0  0  5  5  4]
+ [ 0  0  0  0  0  0  0  0  0  0 26  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0 46]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>14</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[[0 1 0 0 1 3 0 2 0 1 0 2 2 4]
+ [0 0 1 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 1 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 3 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 3 0 2 2]
+ [0 0 0 0 0 0 0 0 0 0 0 2 0 1]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 5]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 4]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>12</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[[ 0  6 17  9  5  7 20 26 38  1  4 11]
+ [ 0  0  1  0  4  0  0  0  0  1  0  0]
+ [ 0  0  0  3  1  2  1  2  3  0  0  6]
+ [ 0  0  0  0  2  3  0  4  0  0  0  3]
+ [ 0  0  0  0  0  3  1  1  1  6  0  0]
+ [ 0  0  0  0  0  0  0  3  0  0 12  0]
+ [ 0  0  0  0  0  0  0  1  0 17  4  0]
+ [ 0  0  0  0  0  0  0  0  0 29  4  4]
+ [ 0  0  0  0  0  0  0  0  0  6  9 27]
+ [ 0  0  0  0  0  0  0  0  0  0 50 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0 83]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>6</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[[ 0 11  8  5  0  0]
+ [ 0  0  0  9  2  0]
+ [ 0  0  0  5  3  0]
+ [ 0  0  0  0  0 19]
+ [ 0  0  0  0  0  5]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>14</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[[ 0 18  4  0 14  4  9  4  4  0  5  0  8  2]
+ [ 0  0  1  3  3  2  4  1  0  0  1  0  3  0]
+ [ 0  0  0  0  0  1  3  1  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  3  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  4  0  3  0  0  5  0  1  4]
+ [ 0  0  0  0  0  0  1  0  1  0  5  4  0  0]
+ [ 0  0  0  0  0  0  0  0  2  5  0  3  3  7]
+ [ 0  0  0  0  0  0  0  0  4  0  1  4  0  0]
+ [ 0  0  0  0  0  0  0  0  0  7  0  3  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  3  1  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1 17]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  5 12]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[[ 0  5  1  2  0  4  0  8  1  3]
+ [ 0  0  0  0  0  0  3  0  2  0]
+ [ 0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  2  0  0  2]
+ [ 0  0  0  0  0  0  0  0  4  2]
+ [ 0  0  0  0  0  0  0  0  3  6]
+ [ 0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>6</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[[0 4 1 7 2 2]
+ [0 0 0 2 0 2]
+ [0 0 0 0 0 1]
+ [0 0 0 0 0 9]
+ [0 0 0 0 0 2]
+ [0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>16</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[[ 0 14  5  0  2  6  4  1  0  0  4  1  0  6  3  2]
+ [ 0  0  1  0  3  0  2  0  0  0  0  0  3  0  2  3]
+ [ 0  0  0  0  3  0  0  0  0  1  1  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  4  0  0  1  0  0  0  2  0  0]
+ [ 0  0  0  0  0  0  0  1  1  0  2  1  0  1  1  0]
+ [ 0  0  0  0  0  0  0  0  1  1  0  4  3  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  1  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  5  0  1  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  2  0  8  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  9  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  9 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 27]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>11</v>
+      </c>
+      <c r="G165" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>8</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[[ 0 10  6 22 13  4  4  5]
+ [ 0  0  2  0  1  4  3  0]
+ [ 0  0  0  1  2  1  1  3]
+ [ 0  0  0  0 14  2  3  4]
+ [ 0  0  0  0  0 22  0  8]
+ [ 0  0  0  0  0  0  5 28]
+ [ 0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>14</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[[ 0  4  2  2  1  0  2  1  5  4  1  3  4  3]
+ [ 0  0  0  1  0  1  0  1  0  0  1  0  0  0]
+ [ 0  0  0  0  1  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  3  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  1]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  3  2  0  0  1]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  3  1  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  4  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  3  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  2  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 14]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>11</v>
+      </c>
+      <c r="G167" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>6</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[[ 0  0 10 33  4  1]
+ [ 0  0  0  0  0  0]
+ [ 0  0  0  3  3  4]
+ [ 0  0  0  0  1 35]
+ [ 0  0  0  0  0  8]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" t="n">
+        <v>10</v>
+      </c>
+      <c r="C169" t="n">
+        <v>8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[[ 0 20 33 27]
+ [ 0  0 12  8]
+ [ 0  0  0 45]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>8</v>
+      </c>
+      <c r="B170" t="n">
+        <v>10</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[[ 0 16  5  6  6 10  0 17]
+ [ 0  0  3  0  2  3  8  0]
+ [ 0  0  0  4  3  0  1  0]
+ [ 0  0  0  0  7  0  2  1]
+ [ 0  0  0  0  0  9  6  3]
+ [ 0  0  0  0  0  0  6 16]
+ [ 0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[[ 0 14  0  2  0  1 19 12  6 18]
+ [ 0  0  2  2  1  4  1  1  2  1]
+ [ 0  0  0  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  4  0  0  0]
+ [ 0  0  0  0  0  2  0  0  0  0]
+ [ 0  0  0  0  0  0  1  3  1  2]
+ [ 0  0  0  0  0  0  0  9 14  2]
+ [ 0  0  0  0  0  0  0  0 22  3]
+ [ 0  0  0  0  0  0  0  0  0 46]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>12</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[[ 0 12  0  0  2 16 12  1  1  7  1 12]
+ [ 0  0  1  0  3  0  1  1  2  0  2  2]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  3  0  0  0  2  0  0]
+ [ 0  0  0  0  0  0  2  4  4  1  5  3]
+ [ 0  0  0  0  0  0  0  1  4  0  1  9]
+ [ 0  0  0  0  0  0  0  0  2  3  0  2]
+ [ 0  0  0  0  0  0  0  0  0  1  2 11]
+ [ 0  0  0  0  0  0  0  0  0  0  9  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>16</v>
+      </c>
+      <c r="B173" t="n">
+        <v>10</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[[0 0 2 0 0 3 5 1 0 0 1 0 2 1 1 4]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0]
+ [0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0]
+ [0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 1 5 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 9]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>13</v>
+      </c>
+      <c r="G173" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[[ 0 17 36 67]
+ [ 0  0 15  2]
+ [ 0  0  0 51]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>10</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[[0 2 2 0 3 0 2 0 1 2]
+ [0 0 0 0 0 2 0 0 0 0]
+ [0 0 0 0 0 0 1 1 0 0]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 0 3 0 0 0]
+ [0 0 0 0 0 0 0 0 0 2]
+ [0 0 0 0 0 0 0 4 2 0]
+ [0 0 0 0 0 0 0 0 3 2]
+ [0 0 0 0 0 0 0 0 0 6]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[[ 0  9  1 14  0  8]
+ [ 0  0  0  1  2  6]
+ [ 0  0  0  1  0  0]
+ [ 0  0  0  0  7  9]
+ [ 0  0  0  0  0  9]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>14</v>
+      </c>
+      <c r="B177" t="n">
+        <v>10</v>
+      </c>
+      <c r="C177" t="n">
+        <v>10</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[[ 0  4  3  7  7 11 10  4  1  1 26  0 16 10]
+ [ 0  0  0  1  0  1  0  1  0  0  1  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  0  0  1  1  0]
+ [ 0  0  0  0  1  0  1  0  0  0  0  2  1  3]
+ [ 0  0  0  0  0  5  0  0  0  0  0  0  0  3]
+ [ 0  0  0  0  0  0  9  2  1  5  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  2  5  0  3  3  7]
+ [ 0  0  0  0  0  0  0  0  1  0  0  5  0  1]
+ [ 0  0  0  0  0  0  0  0  0  1  3  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  3  1  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0 25  2  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 35  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 60]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>9</v>
+      </c>
+      <c r="G177" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>14</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[[ 0  2  6  0  4  2  1 12  0  1  4  1  0  3]
+ [ 0  0  0  0  0  0  0  2  0  0  0  0  0  0]
+ [ 0  0  0  0  0  2  0  2  0  0  0  0  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  1  0  1  1  0  0  0]
+ [ 0  0  0  0  0  0  0  2  1  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  1  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1 15  3  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  2  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  4  5  7  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  6  0  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  7  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 15]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[[ 0 12  1  4  2 13]
+ [ 0  0  0  1  8  3]
+ [ 0  0  0  1  0  0]
+ [ 0  0  0  0  2  4]
+ [ 0  0  0  0  0 12]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>10</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[[0 4 1 0 2 3 0 0 0 2]
+ [0 0 1 0 1 0 0 0 1 1]
+ [0 0 0 0 0 0 0 2 0 0]
+ [0 0 0 0 0 0 0 0 0 0]
+ [0 0 0 0 0 1 2 0 0 0]
+ [0 0 0 0 0 0 0 1 3 0]
+ [0 0 0 0 0 0 0 2 0 0]
+ [0 0 0 0 0 0 0 0 5 0]
+ [0 0 0 0 0 0 0 0 0 9]
+ [0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>3</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12</v>
+      </c>
+      <c r="C181" t="n">
+        <v>10</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[[ 0 38 12 70]
+ [ 0  0 15 23]
+ [ 0  0  0 27]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>16</v>
+      </c>
+      <c r="B182" t="n">
+        <v>10</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[[ 0  1  1  0  3  3  2  1  1  0  0  2  0  2  4  0]
+ [ 0  0  1  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  1  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  1  0  1  0  0  0  1  1  0  0]
+ [ 0  0  0  0  0  0  0  1  0  1  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  2  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  3  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  1  0  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>17</v>
+      </c>
+      <c r="G182" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>14</v>
+      </c>
+      <c r="B183" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" t="n">
+        <v>10</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[[ 0  4  5 34  2  2  3  6  6  5 25  6  0  2]
+ [ 0  0  0  0  0  1  1  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  1  2  0  0  0  2  0  0]
+ [ 0  0  0  0  1  2  9  1  8  6  0  1  1  5]
+ [ 0  0  0  0  0  0  0  1  1  0  1  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  2  0  2]
+ [ 0  0  0  0  0  0  0  0  3  3  3  0  6  0]
+ [ 0  0  0  0  0  0  0  0  0  7  0  1  0  2]
+ [ 0  0  0  0  0  0  0  0  0  6  3  4  2  4]
+ [ 0  0  0  0  0  0  0  0  0  0  3  1  3 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  9 22  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  6 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 41]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>37</v>
+      </c>
+      <c r="G183" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>12</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[[ 0  5  8  2  1  4  3  6  4 13 10  8]
+ [ 0  0  0  0  0  1  0  2  0  0  0  2]
+ [ 0  0  0  0  1  1  3  0  2  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  1  0]
+ [ 0  0  0  0  0  0  0  0  2  0  0  0]
+ [ 0  0  0  0  0  0  0  2  0  2  1  1]
+ [ 0  0  0  0  0  0  0  0  4  1  1  0]
+ [ 0  0  0  0  0  0  0  0  4  0  3  3]
+ [ 0  0  0  0  0  0  0  0  0  2 12  2]
+ [ 0  0  0  0  0  0  0  0  0  0  8 12]
+ [ 0  0  0  0  0  0  0  0  0  0  0 36]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>10</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12</v>
+      </c>
+      <c r="C185" t="n">
+        <v>8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[[ 0  0 11  5 12  9 29  1 13 16]
+ [ 0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  1  2  1  1  5  0  1]
+ [ 0  0  0  0  0  1  0  3  2  0]
+ [ 0  0  0  0  0  2  5  6  1  0]
+ [ 0  0  0  0  0  0  0  2  3  8]
+ [ 0  0  0  0  0  0  0 31  2  2]
+ [ 0  0  0  0  0  0  0  0 18 30]
+ [ 0  0  0  0  0  0  0  0  0 39]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>8</v>
+      </c>
+      <c r="B186" t="n">
+        <v>10</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[[ 0  1  6  4 18  5  6 20]
+ [ 0  0  0  1  0  0  0  0]
+ [ 0  0  0  1  3  2  0  0]
+ [ 0  0  0  0  0  2  2  2]
+ [ 0  0  0  0  0 10  0 11]
+ [ 0  0  0  0  0  0 19  0]
+ [ 0  0  0  0  0  0  0 27]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>14</v>
+      </c>
+      <c r="B187" t="n">
+        <v>10</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[[ 0  7  0  2 14  2  5  0  4  8  0 13  0  5]
+ [ 0  0  0  0  4  0  1  1  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  1  0]
+ [ 0  0  0  0  0  1  2  4  1  4  1  0  1  4]
+ [ 0  0  0  0  0  0  0  2  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  1  5  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  5  2  0]
+ [ 0  0  0  0  0  0  0  0  0  3  0  3  2  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0 11  7  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 21 13]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 34]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>13</v>
+      </c>
+      <c r="G187" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" t="n">
+        <v>10</v>
+      </c>
+      <c r="C188" t="n">
+        <v>8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[[ 0 45  5 30]
+ [ 0  0 19 26]
+ [ 0  0  0 24]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[[ 0  6 22 16  1  3]
+ [ 0  0  0  1  5  0]
+ [ 0  0  0  7  1 14]
+ [ 0  0  0  0 18  6]
+ [ 0  0  0  0  0 25]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>4</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>14</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[[ 0  2  3  0  1  1  2  0  4  3  4  5  4  3]
+ [ 0  0  0  0  0  0  0  0  1  0  1  0  0  0]
+ [ 0  0  0  0  0  0  1  0  0  0  0  0  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  3  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  3  0  6  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  6  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  6  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>6</v>
+      </c>
+      <c r="G190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[[ 0 10  0  3  1  2]
+ [ 0  0  1  1  1  7]
+ [ 0  0  0  1  0  0]
+ [ 0  0  0  0  2  3]
+ [ 0  0  0  0  0  4]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>10</v>
+      </c>
+      <c r="B192" t="n">
+        <v>10</v>
+      </c>
+      <c r="C192" t="n">
+        <v>10</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[[ 0 37  3  1 16  3  8  1  6 25]
+ [ 0  0  5  5 10  0 10  2  3  2]
+ [ 0  0  0  1  2  0  0  3  1  1]
+ [ 0  0  0  0  0  4  1  1  0  1]
+ [ 0  0  0  0  0  4  5  2 10  7]
+ [ 0  0  0  0  0  0  1  2  8  0]
+ [ 0  0  0  0  0  0  0  9 14  2]
+ [ 0  0  0  0  0  0  0  0  4 16]
+ [ 0  0  0  0  0  0  0  0  0 46]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>8</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[[ 0  6  7 14 21  2  2 12]
+ [ 0  0  1  1  3  0  0  1]
+ [ 0  0  0  1  0  2  1  4]
+ [ 0  0  0  0  4 10  2  0]
+ [ 0  0  0  0  0  6 22  0]
+ [ 0  0  0  0  0  0 10 10]
+ [ 0  0  0  0  0  0  0 37]
+ [ 0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>10</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[[ 0  0  3  5  2  1  4  0  4  5]
+ [ 0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  2  1  0  0  0  0]
+ [ 0  0  0  0  1  0  2  2  0  0]
+ [ 0  0  0  0  0  1  1  0  0  3]
+ [ 0  0  0  0  0  0  0  0  2  1]
+ [ 0  0  0  0  0  0  0  7  0  0]
+ [ 0  0  0  0  0  0  0  0  8  1]
+ [ 0  0  0  0  0  0  0  0  0 14]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="n">
+        <v>12</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[[ 0 14  2  0  4  4]
+ [ 0  0  1  3  6  4]
+ [ 0  0  0  0  0  3]
+ [ 0  0  0  0  0  3]
+ [ 0  0  0  0  0 10]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>5</v>
+      </c>
+      <c r="G195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>14</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[[ 0  0  2  3  3  2  0  1  1  0  3  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  1  2  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  1  2]
+ [ 0  0  0  0  0  0  1  1  0  2  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  2  0  0  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  2  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  4  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>12</v>
+      </c>
+      <c r="G196" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>16</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[[ 0  5  2  0  1  0  2  1  7  9  4  0  6  7  3  1]
+ [ 0  0  1  0  0  2  0  0  0  1  0  0  0  0  0  1]
+ [ 0  0  0  0  0  2  0  0  0  0  0  0  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1  0  0  0  0  0  3  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  1  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  3  0  0  0  4  1]
+ [ 0  0  0  0  0  0  0  0  0  0  4  0  1  6  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  4  0  1  1  5]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  4  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  5  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0 17 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 28]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>12</v>
+      </c>
+      <c r="B198" t="n">
+        <v>10</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[[ 0  0  4  2  2  0  3  0  2  3  4  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  1  0  0  0  1  1  1]
+ [ 0  0  0  0  0  1  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  2]
+ [ 0  0  0  0  0  0  0  1  0  0  0  2]
+ [ 0  0  0  0  0  0  0  0  1  1  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  2]
+ [ 0  0  0  0  0  0  0  0  0  0  3  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0 10]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>14</v>
+      </c>
+      <c r="G198" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>14</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[[ 0  5  1  9  0  0  4  4  7 13 13  3  3 10]
+ [ 0  0  0  0  0  0  0  0  0  0  5  0  0  0]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  0  0  2  0  0  0  1  1  1  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  3  0  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  3]
+ [ 0  0  0  0  0  0  0  0  0  2  0  3  1  2]
+ [ 0  0  0  0  0  0  0  0  0  0  3  0  4  8]
+ [ 0  0  0  0  0  0  0  0  0  0  0 14  4  4]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 10 14]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 24]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>12</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12</v>
+      </c>
+      <c r="C200" t="n">
+        <v>12</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[[ 0  8 23 12  9 32  3 32  5  4 10  6]
+ [ 0  0  0  0  0  2  1  0  0  4  0  1]
+ [ 0  0  0  7  6  1  0  2  0  6  1  0]
+ [ 0  0  0  0  2  3  3  1  2  5  1  2]
+ [ 0  0  0  0  0  0  2  1  2  6  5  1]
+ [ 0  0  0  0  0  0  9  0  4  0 22  3]
+ [ 0  0  0  0  0  0  0  1 10  5  2  0]
+ [ 0  0  0  0  0  0  0  0  8  4 24  1]
+ [ 0  0  0  0  0  0  0  0  0  9  5 17]
+ [ 0  0  0  0  0  0  0  0  0  0 22 21]
+ [ 0  0  0  0  0  0  0  0  0  0  0 92]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>51</v>
+      </c>
+      <c r="G200" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>12</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[[ 0  0 10  9 16  0  4  3  0  2 16  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  4  0  0  1  0  2  2  0  1]
+ [ 0  0  0  0  2  1  6  3  0  0  1  0]
+ [ 0  0  0  0  0  1 12  0  1  4  0  0]
+ [ 0  0  0  0  0  0  2  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  1 10  3  7  4]
+ [ 0  0  0  0  0  0  0  0  0  5  0  2]
+ [ 0  0  0  0  0  0  0  0  0  2 10  1]
+ [ 0  0  0  0  0  0  0  0  0  0 11  7]
+ [ 0  0  0  0  0  0  0  0  0  0  0 45]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>10</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[[ 0 12  3  1  8 19  6  6  1  4]
+ [ 0  0  1  0  1  2  1  6  0  1]
+ [ 0  0  0  0  1  0  1  1  0  1]
+ [ 0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  8  1  1  0  0]
+ [ 0  0  0  0  0  0  0  2  7 20]
+ [ 0  0  0  0  0  0  0  4  1  4]
+ [ 0  0  0  0  0  0  0  0  7 14]
+ [ 0  0  0  0  0  0  0  0  0 16]
+ [ 0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[[ 0 15 11 23 46  1]
+ [ 0  0 11  4  0  0]
+ [ 0  0  0  8  4 10]
+ [ 0  0  0  0  8 27]
+ [ 0  0  0  0  0 58]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>14</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[[ 0 18  1  7 25 10  1 10  1  1  9 11  0  2]
+ [ 0  0  1  3  3  2  4  1  0  0  1  0  3  0]
+ [ 0  0  0  0  1  0  0  0  1  0  0  0  0  0]
+ [ 0  0  0  0  5  0  3  0  0  0  0  2  0  0]
+ [ 0  0  0  0  0  9  4  1  8  5  2  1  0  4]
+ [ 0  0  0  0  0  0  0  4  1  4  3  0  3  6]
+ [ 0  0  0  0  0  0  0  0  1  1  1  4  1  4]
+ [ 0  0  0  0  0  0  0  0  8  2  1  3  0  2]
+ [ 0  0  0  0  0  0  0  0  0  7  0  8  0  5]
+ [ 0  0  0  0  0  0  0  0  0  0  5  1  5  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0 19  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 35 14]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 49]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>66</v>
+      </c>
+      <c r="G204" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>4</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[[ 0  1 10 37]
+ [ 0  0  1  0]
+ [ 0  0  0 11]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>4</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[[0 6 2 4]
+ [0 0 6 0]
+ [0 0 0 8]
+ [0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>16</v>
+      </c>
+      <c r="B207" t="n">
+        <v>10</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[[ 0  0  5  3  3  5  1  0  0 10  2  2  3  4  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  1  1  0  2  1  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  1  1  0  0  0  0  0  2  0  0]
+ [ 0  0  0  0  0  0  0  0  1  2  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  2  0  0  2]
+ [ 0  0  0  0  0  0  0  0  1  0  0  2  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  1  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0  0  5  4  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  1  0  0  2  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  1  0  5  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  6  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  5  6]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0 24]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>22</v>
+      </c>
+      <c r="G207" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>12</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[[ 0  3  4  1  2  0  1  8 11  0  1  1]
+ [ 0  0  1  0  1  0  0  1  0  0  0  0]
+ [ 0  0  0  0  0  0  0  3  2  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  1  0  0]
+ [ 0  0  0  0  0  0  0  1  1  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]
+ [ 0  0  0  0  0  0  0  0  0  0  1  0]
+ [ 0  0  0  0  0  0  0  0  0  3  9  1]
+ [ 0  0  0  0  0  0  0  0  0  5  5  4]
+ [ 0  0  0  0  0  0  0  0  0  0  6  3]
+ [ 0  0  0  0  0  0  0  0  0  0  0 23]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>5</v>
+      </c>
+      <c r="G208" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>14</v>
+      </c>
+      <c r="B209" t="n">
+        <v>12</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[[0 3 1 6 3 0 0 4 0 3 0 2 0 2]
+ [0 0 0 1 0 1 0 0 0 0 1 0 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 1 0 0]
+ [0 0 0 0 0 4 1 1 0 0 1 0 0 0]
+ [0 0 0 0 0 1 0 1 0 0 0 1 0 0]
+ [0 0 0 0 0 0 1 0 0 3 0 0 2 0]
+ [0 0 0 0 0 0 0 0 0 0 0 0 1 1]
+ [0 0 0 0 0 0 0 0 5 1 0 0 0 0]
+ [0 0 0 0 0 0 0 0 0 1 3 0 1 0]
+ [0 0 0 0 0 0 0 0 0 0 4 4 0 0]
+ [0 0 0 0 0 0 0 0 0 0 0 2 3 4]
+ [0 0 0 0 0 0 0 0 0 0 0 0 2 8]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 9]
+ [0 0 0 0 0 0 0 0 0 0 0 0 0 0]]</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>20</v>
+      </c>
+      <c r="G209" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>4</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[[ 0  6 15 19]
+ [ 0  0  5  1]
+ [ 0  0  0 20]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>4</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10</v>
+      </c>
+      <c r="C211" t="n">
+        <v>12</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>[[ 0 48  9 63]
+ [ 0  0 33 15]
+ [ 0  0  0 42]
+ [ 0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>12</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[[ 0 44  2  6 15  5]
+ [ 0  0 13 10  9 12]
+ [ 0  0  0  1  1 13]
+ [ 0  0  0  0  6 11]
+ [ 0  0  0  0  0 31]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>12</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8</v>
+      </c>
+      <c r="C213" t="n">
+        <v>10</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>[[ 0 19  0  4 18  0  4  2 10 11 11  1]
+ [ 0  0  2  0  1  2  0  3  4  2  4  1]
+ [ 0  0  0  0  0  0  0  1  0  0  0  1]
+ [ 0  0  0  0  2  0  0  0  2  0  0  0]
+ [ 0  0  0  0  0  1  4  8  5  2  0  1]
+ [ 0  0  0  0  0  0  2  0  0  0  0  1]
+ [ 0  0  0  0  0  0  0  2  0  1  2  5]
+ [ 0  0  0  0  0  0  0  0  0  6  4  6]
+ [ 0  0  0  0  0  0  0  0  0 13  0  8]
+ [ 0  0  0  0  0  0  0  0  0  0 26  9]
+ [ 0  0  0  0  0  0  0  0  0  0  0 47]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>14</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[[ 0  7  2 14  8  7  3  1  1  0 16  3  0  2]
+ [ 0  0  1  0  1  0  1  1  1  0  0  0  2  0]
+ [ 0  0  0  0  1  0  0  0  0  0  0  1  1  0]
+ [ 0  0  0  0  1  1  0  1  1  0  2  3  5  0]
+ [ 0  0  0  0  0  0  1  0  0  1  4  2  0  3]
+ [ 0  0  0  0  0  0  2  0  0  2  1  1  2  0]
+ [ 0  0  0  0  0  0  0  0  0  3  0  0  1  3]
+ [ 0  0  0  0  0  0  0  0  1  0  0  0  1  1]
+ [ 0  0  0  0  0  0  0  0  0  0  2  1  0  1]
+ [ 0  0  0  0  0  0  0  0  0  0  1  3  0  2]
+ [ 0  0  0  0  0  0  0  0  0  0  0  8 17  1]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0 11 11]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0 40]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>26</v>
+      </c>
+      <c r="G214" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="n">
+        <v>12</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>[[ 0 15 11 23 46  1]
+ [ 0  0 11  4  0  0]
+ [ 0  0  0  8  4 10]
+ [ 0  0  0  0  8 27]
+ [ 0  0  0  0  0 58]
+ [ 0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>12</v>
+      </c>
+      <c r="B216" t="n">
+        <v>10</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[[ 0 11 29  3  9  4  5  7  6  6  0  0]
+ [ 0  0  5  1  1  1  1  1  0  0  1  0]
+ [ 0  0  0  2  0  1  0 11 14  4  1  1]
+ [ 0  0  0  0  0  2  0  0  2  0  0  2]
+ [ 0  0  0  0  0  3  3  0  1  0  1  2]
+ [ 0  0  0  0  0  0  1  4  0  5  1  0]
+ [ 0  0  0  0  0  0  0  2  5  0  0  3]
+ [ 0  0  0  0  0  0  0  0  0  5  1 19]
+ [ 0  0  0  0  0  0  0  0  0 17  4  7]
+ [ 0  0  0  0  0  0  0  0  0  0 11 26]
+ [ 0  0  0  0  0  0  0  0  0  0  0 20]
+ [ 0  0  0  0  0  0  0  0  0  0  0  0]]</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>15</v>
+      </c>
+      <c r="G216" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
